--- a/Work/resoruces.xlsx
+++ b/Work/resoruces.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.youtube.com/watch?v=2oihkInZ880&amp;t=1427s</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t xml:space="preserve">while push </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wMqukSKYcvU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9cMWR-EGFuY</t>
+  </si>
+  <si>
+    <t>https://github.com/wardbell/code-with-us-angular-quickstart.git</t>
+  </si>
+  <si>
+    <t>https://github.com/wardbell/code-with-us-angular-quickstart</t>
+  </si>
+  <si>
+    <t>CTRL+ R</t>
+  </si>
+  <si>
+    <t>Git Clone</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,11 +459,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>